--- a/Data/Excel/FCFS/6.xlsx
+++ b/Data/Excel/FCFS/6.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:F94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>54.1</v>
+        <v>44.67</v>
       </c>
       <c r="C2" t="n">
         <v>-2</v>
@@ -481,7 +481,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>53.56</v>
+        <v>44.14</v>
       </c>
       <c r="C3" t="n">
         <v>-2</v>
@@ -501,7 +501,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>53.03</v>
+        <v>43.6</v>
       </c>
       <c r="C4" t="n">
         <v>-2</v>
@@ -521,7 +521,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>52.5</v>
+        <v>43.07</v>
       </c>
       <c r="C5" t="n">
         <v>-2</v>
@@ -541,7 +541,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>51.96</v>
+        <v>42.54</v>
       </c>
       <c r="C6" t="n">
         <v>-2</v>
@@ -561,7 +561,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>51.43</v>
+        <v>42</v>
       </c>
       <c r="C7" t="n">
         <v>-2</v>
@@ -581,7 +581,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>50.9</v>
+        <v>41.47</v>
       </c>
       <c r="C8" t="n">
         <v>-2</v>
@@ -601,7 +601,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>50.36</v>
+        <v>40.94</v>
       </c>
       <c r="C9" t="n">
         <v>-2</v>
@@ -621,7 +621,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>49.83</v>
+        <v>40.4</v>
       </c>
       <c r="C10" t="n">
         <v>-2</v>
@@ -641,7 +641,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>49.3</v>
+        <v>39.87</v>
       </c>
       <c r="C11" t="n">
         <v>-2</v>
@@ -661,7 +661,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>48.76</v>
+        <v>39.34</v>
       </c>
       <c r="C12" t="n">
         <v>-2</v>
@@ -681,7 +681,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>48.23</v>
+        <v>38.8</v>
       </c>
       <c r="C13" t="n">
         <v>-2</v>
@@ -701,7 +701,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>47.7</v>
+        <v>38.27</v>
       </c>
       <c r="C14" t="n">
         <v>-2</v>
@@ -721,7 +721,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>47.16</v>
+        <v>37.74</v>
       </c>
       <c r="C15" t="n">
         <v>-2</v>
@@ -741,7 +741,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>46.63</v>
+        <v>37.2</v>
       </c>
       <c r="C16" t="n">
         <v>-2</v>
@@ -761,7 +761,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>46.1</v>
+        <v>36.67</v>
       </c>
       <c r="C17" t="n">
         <v>-2</v>
@@ -781,7 +781,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>45.56</v>
+        <v>36.14</v>
       </c>
       <c r="C18" t="n">
         <v>-2</v>
@@ -801,7 +801,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>45.03</v>
+        <v>35.6</v>
       </c>
       <c r="C19" t="n">
         <v>-2</v>
@@ -821,7 +821,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>44.5</v>
+        <v>35.07</v>
       </c>
       <c r="C20" t="n">
         <v>-2</v>
@@ -841,7 +841,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>43.96</v>
+        <v>34.54</v>
       </c>
       <c r="C21" t="n">
         <v>-2</v>
@@ -861,7 +861,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>43.43</v>
+        <v>34</v>
       </c>
       <c r="C22" t="n">
         <v>-2</v>
@@ -881,7 +881,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>42.9</v>
+        <v>33.47</v>
       </c>
       <c r="C23" t="n">
         <v>-2</v>
@@ -901,7 +901,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>42.36</v>
+        <v>32.94</v>
       </c>
       <c r="C24" t="n">
         <v>-2</v>
@@ -921,7 +921,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>41.83</v>
+        <v>32.4</v>
       </c>
       <c r="C25" t="n">
         <v>-2</v>
@@ -941,7 +941,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>41.3</v>
+        <v>31.87</v>
       </c>
       <c r="C26" t="n">
         <v>-2</v>
@@ -961,7 +961,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>40.76</v>
+        <v>31.34</v>
       </c>
       <c r="C27" t="n">
         <v>-2</v>
@@ -981,7 +981,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>40.23</v>
+        <v>30.8</v>
       </c>
       <c r="C28" t="n">
         <v>-2</v>
@@ -1001,7 +1001,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>39.7</v>
+        <v>30.27</v>
       </c>
       <c r="C29" t="n">
         <v>-2</v>
@@ -1021,7 +1021,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>39.16</v>
+        <v>29.74</v>
       </c>
       <c r="C30" t="n">
         <v>-2</v>
@@ -1041,7 +1041,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>38.63</v>
+        <v>29.2</v>
       </c>
       <c r="C31" t="n">
         <v>-2</v>
@@ -1061,7 +1061,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>38.1</v>
+        <v>28.67</v>
       </c>
       <c r="C32" t="n">
         <v>-2</v>
@@ -1081,7 +1081,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>37.56</v>
+        <v>28.14</v>
       </c>
       <c r="C33" t="n">
         <v>-2</v>
@@ -1101,7 +1101,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>37.03</v>
+        <v>27.6</v>
       </c>
       <c r="C34" t="n">
         <v>-2</v>
@@ -1121,7 +1121,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>36.5</v>
+        <v>27.07</v>
       </c>
       <c r="C35" t="n">
         <v>-2</v>
@@ -1141,7 +1141,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>35.96</v>
+        <v>26.54</v>
       </c>
       <c r="C36" t="n">
         <v>-2</v>
@@ -1161,7 +1161,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>35.43</v>
+        <v>26</v>
       </c>
       <c r="C37" t="n">
         <v>-2</v>
@@ -1181,7 +1181,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>34.9</v>
+        <v>25.47</v>
       </c>
       <c r="C38" t="n">
         <v>-2</v>
@@ -1201,7 +1201,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>34.36</v>
+        <v>24.94</v>
       </c>
       <c r="C39" t="n">
         <v>-2</v>
@@ -1221,7 +1221,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>33.83</v>
+        <v>24.4</v>
       </c>
       <c r="C40" t="n">
         <v>-2</v>
@@ -1241,7 +1241,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>33.3</v>
+        <v>23.87</v>
       </c>
       <c r="C41" t="n">
         <v>-2</v>
@@ -1261,7 +1261,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>32.76</v>
+        <v>23.34</v>
       </c>
       <c r="C42" t="n">
         <v>-2</v>
@@ -1281,7 +1281,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>32.23</v>
+        <v>22.8</v>
       </c>
       <c r="C43" t="n">
         <v>-2</v>
@@ -1301,7 +1301,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>31.7</v>
+        <v>22.27</v>
       </c>
       <c r="C44" t="n">
         <v>-2</v>
@@ -1321,7 +1321,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>31.16</v>
+        <v>21.74</v>
       </c>
       <c r="C45" t="n">
         <v>-2</v>
@@ -1341,7 +1341,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>30.63</v>
+        <v>21.2</v>
       </c>
       <c r="C46" t="n">
         <v>-2</v>
@@ -1361,7 +1361,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>30.1</v>
+        <v>20.67</v>
       </c>
       <c r="C47" t="n">
         <v>-2</v>
@@ -1381,7 +1381,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>29.56</v>
+        <v>20.14</v>
       </c>
       <c r="C48" t="n">
         <v>-2</v>
@@ -1401,7 +1401,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>29.03</v>
+        <v>19.6</v>
       </c>
       <c r="C49" t="n">
         <v>-2</v>
@@ -1421,7 +1421,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>28.5</v>
+        <v>19.07</v>
       </c>
       <c r="C50" t="n">
         <v>-2</v>
@@ -1441,7 +1441,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>27.96</v>
+        <v>18.54</v>
       </c>
       <c r="C51" t="n">
         <v>-2</v>
@@ -1461,7 +1461,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>27.43</v>
+        <v>18</v>
       </c>
       <c r="C52" t="n">
         <v>-2</v>
@@ -1481,7 +1481,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>26.9</v>
+        <v>17.47</v>
       </c>
       <c r="C53" t="n">
         <v>-2</v>
@@ -1501,7 +1501,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>26.36</v>
+        <v>16.94</v>
       </c>
       <c r="C54" t="n">
         <v>-2</v>
@@ -1521,7 +1521,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>25.83</v>
+        <v>16.4</v>
       </c>
       <c r="C55" t="n">
         <v>-2</v>
@@ -1541,7 +1541,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>25.3</v>
+        <v>15.87</v>
       </c>
       <c r="C56" t="n">
         <v>-2</v>
@@ -1561,7 +1561,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>24.76</v>
+        <v>15.34</v>
       </c>
       <c r="C57" t="n">
         <v>-2</v>
@@ -1581,7 +1581,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>24.23</v>
+        <v>14.8</v>
       </c>
       <c r="C58" t="n">
         <v>-2</v>
@@ -1601,7 +1601,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>23.7</v>
+        <v>14.27</v>
       </c>
       <c r="C59" t="n">
         <v>-2</v>
@@ -1621,7 +1621,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>23.16</v>
+        <v>13.74</v>
       </c>
       <c r="C60" t="n">
         <v>-2</v>
@@ -1641,7 +1641,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>22.63</v>
+        <v>13.2</v>
       </c>
       <c r="C61" t="n">
         <v>-2</v>
@@ -1661,16 +1661,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>22.1</v>
+        <v>12.67</v>
       </c>
       <c r="C62" t="n">
-        <v>-2</v>
+        <v>-2.06</v>
       </c>
       <c r="D62" t="n">
         <v>8</v>
       </c>
       <c r="E62" t="n">
-        <v>3.14</v>
+        <v>3.16</v>
       </c>
       <c r="F62" t="b">
         <v>0</v>
@@ -1681,16 +1681,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>21.56</v>
+        <v>12.14</v>
       </c>
       <c r="C63" t="n">
-        <v>-2</v>
+        <v>-2.08</v>
       </c>
       <c r="D63" t="n">
         <v>8</v>
       </c>
       <c r="E63" t="n">
-        <v>3.14</v>
+        <v>3.17</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
@@ -1701,16 +1701,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>21.03</v>
+        <v>11.61</v>
       </c>
       <c r="C64" t="n">
-        <v>-2</v>
+        <v>-2.07</v>
       </c>
       <c r="D64" t="n">
         <v>8</v>
       </c>
       <c r="E64" t="n">
-        <v>3.14</v>
+        <v>3.16</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
@@ -1721,10 +1721,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>20.5</v>
+        <v>11.08</v>
       </c>
       <c r="C65" t="n">
-        <v>-2</v>
+        <v>-2.04</v>
       </c>
       <c r="D65" t="n">
         <v>8</v>
@@ -1741,16 +1741,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>19.96</v>
+        <v>10.54</v>
       </c>
       <c r="C66" t="n">
-        <v>-2</v>
+        <v>-1.98</v>
       </c>
       <c r="D66" t="n">
         <v>8</v>
       </c>
       <c r="E66" t="n">
-        <v>3.14</v>
+        <v>3.12</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
@@ -1761,16 +1761,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>19.43</v>
+        <v>10.02</v>
       </c>
       <c r="C67" t="n">
-        <v>-2</v>
+        <v>-1.91</v>
       </c>
       <c r="D67" t="n">
         <v>8</v>
       </c>
       <c r="E67" t="n">
-        <v>3.14</v>
+        <v>3.1</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
@@ -1781,16 +1781,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>18.9</v>
+        <v>9.49</v>
       </c>
       <c r="C68" t="n">
-        <v>-2</v>
+        <v>-1.82</v>
       </c>
       <c r="D68" t="n">
         <v>8</v>
       </c>
       <c r="E68" t="n">
-        <v>3.14</v>
+        <v>3.07</v>
       </c>
       <c r="F68" t="b">
         <v>0</v>
@@ -1801,16 +1801,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>18.36</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>-2</v>
+        <v>-1.71</v>
       </c>
       <c r="D69" t="n">
         <v>8</v>
       </c>
       <c r="E69" t="n">
-        <v>3.14</v>
+        <v>3.04</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
@@ -1821,16 +1821,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>17.83</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>-2</v>
+        <v>-1.58</v>
       </c>
       <c r="D70" t="n">
         <v>8</v>
       </c>
       <c r="E70" t="n">
-        <v>3.14</v>
+        <v>3.01</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
@@ -1841,16 +1841,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>17.3</v>
+        <v>7.94</v>
       </c>
       <c r="C71" t="n">
-        <v>-2</v>
+        <v>-1.43</v>
       </c>
       <c r="D71" t="n">
         <v>8</v>
       </c>
       <c r="E71" t="n">
-        <v>3.14</v>
+        <v>2.98</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
@@ -1861,16 +1861,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>16.76</v>
+        <v>7.43</v>
       </c>
       <c r="C72" t="n">
-        <v>-2</v>
+        <v>-1.26</v>
       </c>
       <c r="D72" t="n">
         <v>8</v>
       </c>
       <c r="E72" t="n">
-        <v>3.14</v>
+        <v>2.95</v>
       </c>
       <c r="F72" t="b">
         <v>0</v>
@@ -1881,16 +1881,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>16.23</v>
+        <v>6.93</v>
       </c>
       <c r="C73" t="n">
-        <v>-2</v>
+        <v>-1.08</v>
       </c>
       <c r="D73" t="n">
         <v>8</v>
       </c>
       <c r="E73" t="n">
-        <v>3.14</v>
+        <v>2.91</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>15.7</v>
+        <v>6.44</v>
       </c>
       <c r="C74" t="n">
-        <v>-2</v>
+        <v>-0.88</v>
       </c>
       <c r="D74" t="n">
         <v>8</v>
       </c>
       <c r="E74" t="n">
-        <v>3.14</v>
+        <v>2.88</v>
       </c>
       <c r="F74" t="b">
         <v>0</v>
@@ -1921,16 +1921,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>15.16</v>
+        <v>5.95</v>
       </c>
       <c r="C75" t="n">
-        <v>-2</v>
+        <v>-0.65</v>
       </c>
       <c r="D75" t="n">
         <v>8</v>
       </c>
       <c r="E75" t="n">
-        <v>3.14</v>
+        <v>2.84</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
@@ -1941,16 +1941,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>14.63</v>
+        <v>5.48</v>
       </c>
       <c r="C76" t="n">
-        <v>-2</v>
+        <v>-0.41</v>
       </c>
       <c r="D76" t="n">
         <v>8</v>
       </c>
       <c r="E76" t="n">
-        <v>3.14</v>
+        <v>2.81</v>
       </c>
       <c r="F76" t="b">
         <v>0</v>
@@ -1961,16 +1961,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>14.1</v>
+        <v>5.01</v>
       </c>
       <c r="C77" t="n">
-        <v>-2</v>
+        <v>-0.15</v>
       </c>
       <c r="D77" t="n">
         <v>8</v>
       </c>
       <c r="E77" t="n">
-        <v>3.14</v>
+        <v>2.77</v>
       </c>
       <c r="F77" t="b">
         <v>0</v>
@@ -1981,16 +1981,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>13.56</v>
+        <v>4.56</v>
       </c>
       <c r="C78" t="n">
-        <v>-2</v>
+        <v>0.12</v>
       </c>
       <c r="D78" t="n">
         <v>8</v>
       </c>
       <c r="E78" t="n">
-        <v>3.14</v>
+        <v>2.73</v>
       </c>
       <c r="F78" t="b">
         <v>0</v>
@@ -2001,16 +2001,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>13.03</v>
+        <v>4.11</v>
       </c>
       <c r="C79" t="n">
-        <v>-2</v>
+        <v>0.42</v>
       </c>
       <c r="D79" t="n">
         <v>8</v>
       </c>
       <c r="E79" t="n">
-        <v>3.14</v>
+        <v>2.7</v>
       </c>
       <c r="F79" t="b">
         <v>0</v>
@@ -2021,16 +2021,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>12.5</v>
+        <v>3.68</v>
       </c>
       <c r="C80" t="n">
-        <v>-2.05</v>
+        <v>0.73</v>
       </c>
       <c r="D80" t="n">
         <v>8</v>
       </c>
       <c r="E80" t="n">
-        <v>3.16</v>
+        <v>2.66</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
@@ -2041,16 +2041,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>11.97</v>
+        <v>3.26</v>
       </c>
       <c r="C81" t="n">
-        <v>-2.06</v>
+        <v>1.06</v>
       </c>
       <c r="D81" t="n">
         <v>8</v>
       </c>
       <c r="E81" t="n">
-        <v>3.16</v>
+        <v>2.62</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
@@ -2061,16 +2061,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>11.43</v>
+        <v>2.85</v>
       </c>
       <c r="C82" t="n">
-        <v>-2.05</v>
+        <v>1.41</v>
       </c>
       <c r="D82" t="n">
         <v>8</v>
       </c>
       <c r="E82" t="n">
-        <v>3.15</v>
+        <v>2.58</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
@@ -2081,16 +2081,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>10.9</v>
+        <v>2.46</v>
       </c>
       <c r="C83" t="n">
-        <v>-2.01</v>
+        <v>1.77</v>
       </c>
       <c r="D83" t="n">
         <v>8</v>
       </c>
       <c r="E83" t="n">
-        <v>3.14</v>
+        <v>2.54</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
@@ -2101,16 +2101,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>10.37</v>
+        <v>2.09</v>
       </c>
       <c r="C84" t="n">
-        <v>-1.96</v>
+        <v>2.15</v>
       </c>
       <c r="D84" t="n">
         <v>8</v>
       </c>
       <c r="E84" t="n">
-        <v>3.11</v>
+        <v>2.5</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
@@ -2121,16 +2121,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>9.84</v>
+        <v>1.73</v>
       </c>
       <c r="C85" t="n">
-        <v>-1.88</v>
+        <v>2.54</v>
       </c>
       <c r="D85" t="n">
         <v>8</v>
       </c>
       <c r="E85" t="n">
-        <v>3.09</v>
+        <v>2.46</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
@@ -2141,16 +2141,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>9.32</v>
+        <v>1.38</v>
       </c>
       <c r="C86" t="n">
-        <v>-1.78</v>
+        <v>2.95</v>
       </c>
       <c r="D86" t="n">
         <v>8</v>
       </c>
       <c r="E86" t="n">
-        <v>3.06</v>
+        <v>2.42</v>
       </c>
       <c r="F86" t="b">
         <v>0</v>
@@ -2161,16 +2161,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>8.800000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="C87" t="n">
-        <v>-1.66</v>
+        <v>3.37</v>
       </c>
       <c r="D87" t="n">
         <v>8</v>
       </c>
       <c r="E87" t="n">
-        <v>3.03</v>
+        <v>2.38</v>
       </c>
       <c r="F87" t="b">
         <v>0</v>
@@ -2181,16 +2181,16 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>8.279999999999999</v>
+        <v>0.74</v>
       </c>
       <c r="C88" t="n">
-        <v>-1.53</v>
+        <v>3.8</v>
       </c>
       <c r="D88" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="E88" t="n">
-        <v>3</v>
+        <v>2.34</v>
       </c>
       <c r="F88" t="b">
         <v>0</v>
@@ -2201,18 +2201,118 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>7.8</v>
+        <v>0.45</v>
       </c>
       <c r="C89" t="n">
-        <v>-1.38</v>
+        <v>4.25</v>
       </c>
       <c r="D89" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="E89" t="n">
-        <v>2.97</v>
+        <v>2.3</v>
       </c>
       <c r="F89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="C90" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="D90" t="n">
+        <v>8</v>
+      </c>
+      <c r="E90" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="F90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="C91" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="D91" t="n">
+        <v>8</v>
+      </c>
+      <c r="E91" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="F91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="C92" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="D92" t="n">
+        <v>8</v>
+      </c>
+      <c r="E92" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="F92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>-0.52</v>
+      </c>
+      <c r="C93" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="D93" t="n">
+        <v>8</v>
+      </c>
+      <c r="E93" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="F93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>-0.71</v>
+      </c>
+      <c r="C94" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="D94" t="n">
+        <v>8</v>
+      </c>
+      <c r="E94" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="F94" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2227,7 +2327,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:F94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2275,7 +2375,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>59.92</v>
+        <v>46.24</v>
       </c>
       <c r="D2" t="n">
         <v>9.890000000000001</v>
@@ -2295,7 +2395,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>59.26</v>
+        <v>45.58</v>
       </c>
       <c r="D3" t="n">
         <v>9.789999999999999</v>
@@ -2315,7 +2415,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>58.61</v>
+        <v>44.92</v>
       </c>
       <c r="D4" t="n">
         <v>9.699999999999999</v>
@@ -2335,7 +2435,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>57.96</v>
+        <v>44.28</v>
       </c>
       <c r="D5" t="n">
         <v>9.619999999999999</v>
@@ -2355,7 +2455,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>57.32</v>
+        <v>43.64</v>
       </c>
       <c r="D6" t="n">
         <v>9.550000000000001</v>
@@ -2375,7 +2475,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>56.69</v>
+        <v>43</v>
       </c>
       <c r="D7" t="n">
         <v>9.49</v>
@@ -2395,7 +2495,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>56.05</v>
+        <v>42.37</v>
       </c>
       <c r="D8" t="n">
         <v>9.44</v>
@@ -2415,7 +2515,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>55.42</v>
+        <v>41.74</v>
       </c>
       <c r="D9" t="n">
         <v>9.390000000000001</v>
@@ -2435,7 +2535,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>54.8</v>
+        <v>41.11</v>
       </c>
       <c r="D10" t="n">
         <v>9.35</v>
@@ -2455,7 +2555,7 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>54.18</v>
+        <v>40.49</v>
       </c>
       <c r="D11" t="n">
         <v>9.31</v>
@@ -2475,7 +2575,7 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>53.55</v>
+        <v>39.87</v>
       </c>
       <c r="D12" t="n">
         <v>9.27</v>
@@ -2495,7 +2595,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>52.94</v>
+        <v>39.25</v>
       </c>
       <c r="D13" t="n">
         <v>9.24</v>
@@ -2515,7 +2615,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>52.32</v>
+        <v>38.63</v>
       </c>
       <c r="D14" t="n">
         <v>9.220000000000001</v>
@@ -2535,7 +2635,7 @@
         <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>51.71</v>
+        <v>38.02</v>
       </c>
       <c r="D15" t="n">
         <v>9.19</v>
@@ -2555,7 +2655,7 @@
         <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>51.09</v>
+        <v>37.41</v>
       </c>
       <c r="D16" t="n">
         <v>9.17</v>
@@ -2575,7 +2675,7 @@
         <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>50.48</v>
+        <v>36.79</v>
       </c>
       <c r="D17" t="n">
         <v>9.15</v>
@@ -2595,7 +2695,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>49.87</v>
+        <v>36.18</v>
       </c>
       <c r="D18" t="n">
         <v>9.140000000000001</v>
@@ -2615,7 +2715,7 @@
         <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>49.26</v>
+        <v>35.58</v>
       </c>
       <c r="D19" t="n">
         <v>9.119999999999999</v>
@@ -2635,7 +2735,7 @@
         <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>48.65</v>
+        <v>34.97</v>
       </c>
       <c r="D20" t="n">
         <v>9.109999999999999</v>
@@ -2655,7 +2755,7 @@
         <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>48.05</v>
+        <v>34.36</v>
       </c>
       <c r="D21" t="n">
         <v>9.09</v>
@@ -2675,7 +2775,7 @@
         <v>2</v>
       </c>
       <c r="C22" t="n">
-        <v>47.44</v>
+        <v>33.75</v>
       </c>
       <c r="D22" t="n">
         <v>9.08</v>
@@ -2695,7 +2795,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>46.84</v>
+        <v>33.15</v>
       </c>
       <c r="D23" t="n">
         <v>9.07</v>
@@ -2715,7 +2815,7 @@
         <v>2</v>
       </c>
       <c r="C24" t="n">
-        <v>46.23</v>
+        <v>32.54</v>
       </c>
       <c r="D24" t="n">
         <v>9.07</v>
@@ -2735,7 +2835,7 @@
         <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>45.63</v>
+        <v>31.94</v>
       </c>
       <c r="D25" t="n">
         <v>9.06</v>
@@ -2755,7 +2855,7 @@
         <v>2</v>
       </c>
       <c r="C26" t="n">
-        <v>45.02</v>
+        <v>31.33</v>
       </c>
       <c r="D26" t="n">
         <v>9.050000000000001</v>
@@ -2775,7 +2875,7 @@
         <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>44.42</v>
+        <v>30.73</v>
       </c>
       <c r="D27" t="n">
         <v>9.050000000000001</v>
@@ -2795,7 +2895,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>43.82</v>
+        <v>30.13</v>
       </c>
       <c r="D28" t="n">
         <v>9.039999999999999</v>
@@ -2815,7 +2915,7 @@
         <v>2</v>
       </c>
       <c r="C29" t="n">
-        <v>43.21</v>
+        <v>29.53</v>
       </c>
       <c r="D29" t="n">
         <v>9.039999999999999</v>
@@ -2835,7 +2935,7 @@
         <v>2</v>
       </c>
       <c r="C30" t="n">
-        <v>42.61</v>
+        <v>28.92</v>
       </c>
       <c r="D30" t="n">
         <v>9.029999999999999</v>
@@ -2855,7 +2955,7 @@
         <v>2</v>
       </c>
       <c r="C31" t="n">
-        <v>42.01</v>
+        <v>28.32</v>
       </c>
       <c r="D31" t="n">
         <v>9.029999999999999</v>
@@ -2875,7 +2975,7 @@
         <v>2</v>
       </c>
       <c r="C32" t="n">
-        <v>41.41</v>
+        <v>27.72</v>
       </c>
       <c r="D32" t="n">
         <v>9.029999999999999</v>
@@ -2895,7 +2995,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>40.8</v>
+        <v>27.12</v>
       </c>
       <c r="D33" t="n">
         <v>9.02</v>
@@ -2915,7 +3015,7 @@
         <v>2</v>
       </c>
       <c r="C34" t="n">
-        <v>40.2</v>
+        <v>26.52</v>
       </c>
       <c r="D34" t="n">
         <v>9.02</v>
@@ -2935,7 +3035,7 @@
         <v>2</v>
       </c>
       <c r="C35" t="n">
-        <v>39.6</v>
+        <v>25.91</v>
       </c>
       <c r="D35" t="n">
         <v>9.02</v>
@@ -2955,10 +3055,10 @@
         <v>2</v>
       </c>
       <c r="C36" t="n">
-        <v>39</v>
+        <v>25.31</v>
       </c>
       <c r="D36" t="n">
-        <v>9.02</v>
+        <v>8.52</v>
       </c>
       <c r="E36" t="n">
         <v>-1.57</v>
@@ -2975,10 +3075,10 @@
         <v>2</v>
       </c>
       <c r="C37" t="n">
-        <v>38.4</v>
+        <v>24.75</v>
       </c>
       <c r="D37" t="n">
-        <v>9.01</v>
+        <v>8.07</v>
       </c>
       <c r="E37" t="n">
         <v>-1.57</v>
@@ -2995,10 +3095,10 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>37.8</v>
+        <v>24.21</v>
       </c>
       <c r="D38" t="n">
-        <v>9.01</v>
+        <v>7.67</v>
       </c>
       <c r="E38" t="n">
         <v>-1.57</v>
@@ -3015,10 +3115,10 @@
         <v>2</v>
       </c>
       <c r="C39" t="n">
-        <v>37.2</v>
+        <v>23.7</v>
       </c>
       <c r="D39" t="n">
-        <v>9.01</v>
+        <v>7.32</v>
       </c>
       <c r="E39" t="n">
         <v>-1.57</v>
@@ -3035,10 +3135,10 @@
         <v>2</v>
       </c>
       <c r="C40" t="n">
-        <v>36.6</v>
+        <v>23.21</v>
       </c>
       <c r="D40" t="n">
-        <v>9.01</v>
+        <v>7.01</v>
       </c>
       <c r="E40" t="n">
         <v>-1.57</v>
@@ -3055,10 +3155,10 @@
         <v>2</v>
       </c>
       <c r="C41" t="n">
-        <v>36</v>
+        <v>22.74</v>
       </c>
       <c r="D41" t="n">
-        <v>9.01</v>
+        <v>6.73</v>
       </c>
       <c r="E41" t="n">
         <v>-1.57</v>
@@ -3075,10 +3175,10 @@
         <v>2</v>
       </c>
       <c r="C42" t="n">
-        <v>35.4</v>
+        <v>22.29</v>
       </c>
       <c r="D42" t="n">
-        <v>9.01</v>
+        <v>5.98</v>
       </c>
       <c r="E42" t="n">
         <v>-1.57</v>
@@ -3095,10 +3195,10 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>34.79</v>
+        <v>21.89</v>
       </c>
       <c r="D43" t="n">
-        <v>9.01</v>
+        <v>5.32</v>
       </c>
       <c r="E43" t="n">
         <v>-1.57</v>
@@ -3115,10 +3215,10 @@
         <v>2</v>
       </c>
       <c r="C44" t="n">
-        <v>34.19</v>
+        <v>21.54</v>
       </c>
       <c r="D44" t="n">
-        <v>9.01</v>
+        <v>4.73</v>
       </c>
       <c r="E44" t="n">
         <v>-1.57</v>
@@ -3135,10 +3235,10 @@
         <v>2</v>
       </c>
       <c r="C45" t="n">
-        <v>33.59</v>
+        <v>21.22</v>
       </c>
       <c r="D45" t="n">
-        <v>9.01</v>
+        <v>4.2</v>
       </c>
       <c r="E45" t="n">
         <v>-1.57</v>
@@ -3155,10 +3255,10 @@
         <v>2</v>
       </c>
       <c r="C46" t="n">
-        <v>32.99</v>
+        <v>20.94</v>
       </c>
       <c r="D46" t="n">
-        <v>9</v>
+        <v>3.73</v>
       </c>
       <c r="E46" t="n">
         <v>-1.57</v>
@@ -3175,10 +3275,10 @@
         <v>2</v>
       </c>
       <c r="C47" t="n">
-        <v>32.39</v>
+        <v>20.69</v>
       </c>
       <c r="D47" t="n">
-        <v>9</v>
+        <v>3.32</v>
       </c>
       <c r="E47" t="n">
         <v>-1.57</v>
@@ -3195,10 +3295,10 @@
         <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>31.79</v>
+        <v>20.47</v>
       </c>
       <c r="D48" t="n">
-        <v>9</v>
+        <v>2.95</v>
       </c>
       <c r="E48" t="n">
         <v>-1.57</v>
@@ -3215,10 +3315,10 @@
         <v>2</v>
       </c>
       <c r="C49" t="n">
-        <v>31.19</v>
+        <v>20.28</v>
       </c>
       <c r="D49" t="n">
-        <v>9</v>
+        <v>2.62</v>
       </c>
       <c r="E49" t="n">
         <v>-1.57</v>
@@ -3235,10 +3335,10 @@
         <v>2</v>
       </c>
       <c r="C50" t="n">
-        <v>30.59</v>
+        <v>20.1</v>
       </c>
       <c r="D50" t="n">
-        <v>9</v>
+        <v>2.33</v>
       </c>
       <c r="E50" t="n">
         <v>-1.57</v>
@@ -3255,10 +3355,10 @@
         <v>2</v>
       </c>
       <c r="C51" t="n">
-        <v>29.99</v>
+        <v>19.95</v>
       </c>
       <c r="D51" t="n">
-        <v>9</v>
+        <v>2.07</v>
       </c>
       <c r="E51" t="n">
         <v>-1.57</v>
@@ -3275,10 +3375,10 @@
         <v>2</v>
       </c>
       <c r="C52" t="n">
-        <v>29.39</v>
+        <v>19.81</v>
       </c>
       <c r="D52" t="n">
-        <v>9</v>
+        <v>1.84</v>
       </c>
       <c r="E52" t="n">
         <v>-1.57</v>
@@ -3295,10 +3395,10 @@
         <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>28.79</v>
+        <v>19.69</v>
       </c>
       <c r="D53" t="n">
-        <v>9</v>
+        <v>1.64</v>
       </c>
       <c r="E53" t="n">
         <v>-1.57</v>
@@ -3315,10 +3415,10 @@
         <v>2</v>
       </c>
       <c r="C54" t="n">
-        <v>28.19</v>
+        <v>19.58</v>
       </c>
       <c r="D54" t="n">
-        <v>9</v>
+        <v>1.46</v>
       </c>
       <c r="E54" t="n">
         <v>-1.57</v>
@@ -3335,10 +3435,10 @@
         <v>2</v>
       </c>
       <c r="C55" t="n">
-        <v>27.59</v>
+        <v>19.48</v>
       </c>
       <c r="D55" t="n">
-        <v>9</v>
+        <v>1.29</v>
       </c>
       <c r="E55" t="n">
         <v>-1.57</v>
@@ -3355,10 +3455,10 @@
         <v>2</v>
       </c>
       <c r="C56" t="n">
-        <v>26.99</v>
+        <v>19.39</v>
       </c>
       <c r="D56" t="n">
-        <v>9</v>
+        <v>1.15</v>
       </c>
       <c r="E56" t="n">
         <v>-1.57</v>
@@ -3375,10 +3475,10 @@
         <v>2</v>
       </c>
       <c r="C57" t="n">
-        <v>26.39</v>
+        <v>19.32</v>
       </c>
       <c r="D57" t="n">
-        <v>9</v>
+        <v>1.02</v>
       </c>
       <c r="E57" t="n">
         <v>-1.57</v>
@@ -3395,10 +3495,10 @@
         <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>25.79</v>
+        <v>19.25</v>
       </c>
       <c r="D58" t="n">
-        <v>9</v>
+        <v>0.91</v>
       </c>
       <c r="E58" t="n">
         <v>-1.57</v>
@@ -3415,10 +3515,10 @@
         <v>2</v>
       </c>
       <c r="C59" t="n">
-        <v>25.19</v>
+        <v>19.19</v>
       </c>
       <c r="D59" t="n">
-        <v>9</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E59" t="n">
         <v>-1.57</v>
@@ -3435,10 +3535,10 @@
         <v>2</v>
       </c>
       <c r="C60" t="n">
-        <v>24.59</v>
+        <v>19.13</v>
       </c>
       <c r="D60" t="n">
-        <v>9</v>
+        <v>0.72</v>
       </c>
       <c r="E60" t="n">
         <v>-1.57</v>
@@ -3455,10 +3555,10 @@
         <v>2</v>
       </c>
       <c r="C61" t="n">
-        <v>23.99</v>
+        <v>19.09</v>
       </c>
       <c r="D61" t="n">
-        <v>9</v>
+        <v>0.64</v>
       </c>
       <c r="E61" t="n">
         <v>-1.57</v>
@@ -3475,10 +3575,10 @@
         <v>2</v>
       </c>
       <c r="C62" t="n">
-        <v>23.39</v>
+        <v>19.04</v>
       </c>
       <c r="D62" t="n">
-        <v>9</v>
+        <v>0.57</v>
       </c>
       <c r="E62" t="n">
         <v>-1.57</v>
@@ -3495,10 +3595,10 @@
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>22.79</v>
+        <v>19.01</v>
       </c>
       <c r="D63" t="n">
-        <v>9</v>
+        <v>0.5</v>
       </c>
       <c r="E63" t="n">
         <v>-1.57</v>
@@ -3515,10 +3615,10 @@
         <v>2</v>
       </c>
       <c r="C64" t="n">
-        <v>22.19</v>
+        <v>18.97</v>
       </c>
       <c r="D64" t="n">
-        <v>9</v>
+        <v>0.45</v>
       </c>
       <c r="E64" t="n">
         <v>-1.57</v>
@@ -3535,10 +3635,10 @@
         <v>2</v>
       </c>
       <c r="C65" t="n">
-        <v>21.59</v>
+        <v>18.94</v>
       </c>
       <c r="D65" t="n">
-        <v>9</v>
+        <v>0.4</v>
       </c>
       <c r="E65" t="n">
         <v>-1.57</v>
@@ -3555,10 +3655,10 @@
         <v>2</v>
       </c>
       <c r="C66" t="n">
-        <v>20.99</v>
+        <v>18.92</v>
       </c>
       <c r="D66" t="n">
-        <v>9</v>
+        <v>0.35</v>
       </c>
       <c r="E66" t="n">
         <v>-1.57</v>
@@ -3575,10 +3675,10 @@
         <v>2</v>
       </c>
       <c r="C67" t="n">
-        <v>20.39</v>
+        <v>18.89</v>
       </c>
       <c r="D67" t="n">
-        <v>9</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E67" t="n">
         <v>-1.57</v>
@@ -3595,10 +3695,10 @@
         <v>2</v>
       </c>
       <c r="C68" t="n">
-        <v>19.79</v>
+        <v>18.84</v>
       </c>
       <c r="D68" t="n">
-        <v>9</v>
+        <v>1.22</v>
       </c>
       <c r="E68" t="n">
         <v>-1.57</v>
@@ -3615,10 +3715,10 @@
         <v>2</v>
       </c>
       <c r="C69" t="n">
-        <v>19.19</v>
+        <v>18.76</v>
       </c>
       <c r="D69" t="n">
-        <v>9</v>
+        <v>1.59</v>
       </c>
       <c r="E69" t="n">
         <v>-1.57</v>
@@ -3635,10 +3735,10 @@
         <v>2</v>
       </c>
       <c r="C70" t="n">
-        <v>18.59</v>
+        <v>18.65</v>
       </c>
       <c r="D70" t="n">
-        <v>9</v>
+        <v>1.91</v>
       </c>
       <c r="E70" t="n">
         <v>-1.57</v>
@@ -3655,10 +3755,10 @@
         <v>2</v>
       </c>
       <c r="C71" t="n">
-        <v>17.99</v>
+        <v>18.52</v>
       </c>
       <c r="D71" t="n">
-        <v>9</v>
+        <v>2.2</v>
       </c>
       <c r="E71" t="n">
         <v>-1.57</v>
@@ -3675,10 +3775,10 @@
         <v>2</v>
       </c>
       <c r="C72" t="n">
-        <v>17.39</v>
+        <v>18.38</v>
       </c>
       <c r="D72" t="n">
-        <v>9</v>
+        <v>2.45</v>
       </c>
       <c r="E72" t="n">
         <v>-1.57</v>
@@ -3695,10 +3795,10 @@
         <v>2</v>
       </c>
       <c r="C73" t="n">
-        <v>16.79</v>
+        <v>18.21</v>
       </c>
       <c r="D73" t="n">
-        <v>9</v>
+        <v>3.18</v>
       </c>
       <c r="E73" t="n">
         <v>-1.57</v>
@@ -3715,10 +3815,10 @@
         <v>2</v>
       </c>
       <c r="C74" t="n">
-        <v>16.19</v>
+        <v>18</v>
       </c>
       <c r="D74" t="n">
-        <v>9</v>
+        <v>3.83</v>
       </c>
       <c r="E74" t="n">
         <v>-1.57</v>
@@ -3735,10 +3835,10 @@
         <v>2</v>
       </c>
       <c r="C75" t="n">
-        <v>15.59</v>
+        <v>17.75</v>
       </c>
       <c r="D75" t="n">
-        <v>9</v>
+        <v>4.4</v>
       </c>
       <c r="E75" t="n">
         <v>-1.57</v>
@@ -3755,10 +3855,10 @@
         <v>2</v>
       </c>
       <c r="C76" t="n">
-        <v>14.99</v>
+        <v>17.45</v>
       </c>
       <c r="D76" t="n">
-        <v>9</v>
+        <v>4.91</v>
       </c>
       <c r="E76" t="n">
         <v>-1.57</v>
@@ -3775,10 +3875,10 @@
         <v>2</v>
       </c>
       <c r="C77" t="n">
-        <v>14.39</v>
+        <v>17.12</v>
       </c>
       <c r="D77" t="n">
-        <v>9</v>
+        <v>5.37</v>
       </c>
       <c r="E77" t="n">
         <v>-1.57</v>
@@ -3795,10 +3895,10 @@
         <v>2</v>
       </c>
       <c r="C78" t="n">
-        <v>13.79</v>
+        <v>16.77</v>
       </c>
       <c r="D78" t="n">
-        <v>9</v>
+        <v>5.77</v>
       </c>
       <c r="E78" t="n">
         <v>-1.57</v>
@@ -3815,10 +3915,10 @@
         <v>2</v>
       </c>
       <c r="C79" t="n">
-        <v>13.19</v>
+        <v>16.38</v>
       </c>
       <c r="D79" t="n">
-        <v>9</v>
+        <v>6.13</v>
       </c>
       <c r="E79" t="n">
         <v>-1.57</v>
@@ -3832,16 +3932,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="C80" t="n">
-        <v>12.59</v>
+        <v>15.97</v>
       </c>
       <c r="D80" t="n">
-        <v>9</v>
+        <v>6.45</v>
       </c>
       <c r="E80" t="n">
-        <v>-1.55</v>
+        <v>-1.57</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
@@ -3852,16 +3952,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="C81" t="n">
-        <v>11.99</v>
+        <v>15.54</v>
       </c>
       <c r="D81" t="n">
-        <v>9</v>
+        <v>6.73</v>
       </c>
       <c r="E81" t="n">
-        <v>-1.55</v>
+        <v>-1.57</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
@@ -3872,16 +3972,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="C82" t="n">
-        <v>11.39</v>
+        <v>15.09</v>
       </c>
       <c r="D82" t="n">
-        <v>9</v>
+        <v>6.98</v>
       </c>
       <c r="E82" t="n">
-        <v>-1.56</v>
+        <v>-1.57</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
@@ -3892,16 +3992,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="C83" t="n">
-        <v>10.79</v>
+        <v>14.63</v>
       </c>
       <c r="D83" t="n">
-        <v>9</v>
+        <v>7.21</v>
       </c>
       <c r="E83" t="n">
-        <v>-1.58</v>
+        <v>-1.57</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
@@ -3912,16 +4012,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="C84" t="n">
-        <v>10.2</v>
+        <v>14.15</v>
       </c>
       <c r="D84" t="n">
-        <v>9</v>
+        <v>7.41</v>
       </c>
       <c r="E84" t="n">
-        <v>-1.61</v>
+        <v>-1.57</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
@@ -3932,16 +4032,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1.84</v>
+        <v>2</v>
       </c>
       <c r="C85" t="n">
-        <v>9.609999999999999</v>
+        <v>13.65</v>
       </c>
       <c r="D85" t="n">
-        <v>9</v>
+        <v>7.58</v>
       </c>
       <c r="E85" t="n">
-        <v>-1.64</v>
+        <v>-1.57</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
@@ -3952,16 +4052,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="C86" t="n">
-        <v>9.02</v>
+        <v>13.15</v>
       </c>
       <c r="D86" t="n">
-        <v>9</v>
+        <v>7.74</v>
       </c>
       <c r="E86" t="n">
-        <v>-1.67</v>
+        <v>-1.57</v>
       </c>
       <c r="F86" t="b">
         <v>0</v>
@@ -3972,16 +4072,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1.58</v>
+        <v>2.06</v>
       </c>
       <c r="C87" t="n">
-        <v>8.44</v>
+        <v>12.64</v>
       </c>
       <c r="D87" t="n">
-        <v>9</v>
+        <v>7.88</v>
       </c>
       <c r="E87" t="n">
-        <v>-1.7</v>
+        <v>-1.55</v>
       </c>
       <c r="F87" t="b">
         <v>0</v>
@@ -3992,16 +4092,16 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1.41</v>
+        <v>2.07</v>
       </c>
       <c r="C88" t="n">
-        <v>7.86</v>
+        <v>12.11</v>
       </c>
       <c r="D88" t="n">
-        <v>9</v>
+        <v>8.01</v>
       </c>
       <c r="E88" t="n">
-        <v>-1.74</v>
+        <v>-1.55</v>
       </c>
       <c r="F88" t="b">
         <v>0</v>
@@ -4012,18 +4112,118 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1.22</v>
+        <v>2.06</v>
       </c>
       <c r="C89" t="n">
-        <v>7.29</v>
+        <v>11.58</v>
       </c>
       <c r="D89" t="n">
-        <v>9</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="E89" t="n">
-        <v>-1.78</v>
+        <v>-1.55</v>
       </c>
       <c r="F89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="C90" t="n">
+        <v>11.04</v>
+      </c>
+      <c r="D90" t="n">
+        <v>8.210000000000001</v>
+      </c>
+      <c r="E90" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="C91" t="n">
+        <v>10.49</v>
+      </c>
+      <c r="D91" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="E91" t="n">
+        <v>-1.59</v>
+      </c>
+      <c r="F91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="C92" t="n">
+        <v>9.94</v>
+      </c>
+      <c r="D92" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="E92" t="n">
+        <v>-1.62</v>
+      </c>
+      <c r="F92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="C93" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="D93" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="E93" t="n">
+        <v>-1.65</v>
+      </c>
+      <c r="F93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="C94" t="n">
+        <v>8.84</v>
+      </c>
+      <c r="D94" t="n">
+        <v>8.51</v>
+      </c>
+      <c r="E94" t="n">
+        <v>-1.68</v>
+      </c>
+      <c r="F94" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4038,7 +4238,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:F94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4083,7 +4283,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-60.17</v>
+        <v>-52.95</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
@@ -4103,7 +4303,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-59.51</v>
+        <v>-52.29</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -4123,7 +4323,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-58.86</v>
+        <v>-51.64</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -4143,7 +4343,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-58.21</v>
+        <v>-50.99</v>
       </c>
       <c r="C5" t="n">
         <v>2</v>
@@ -4163,7 +4363,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-57.57</v>
+        <v>-50.35</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
@@ -4183,7 +4383,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-56.93</v>
+        <v>-49.71</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
@@ -4203,7 +4403,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-56.3</v>
+        <v>-49.08</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -4223,7 +4423,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-55.67</v>
+        <v>-48.45</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
@@ -4243,7 +4443,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-55.04</v>
+        <v>-47.82</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
@@ -4263,7 +4463,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-54.42</v>
+        <v>-47.2</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
@@ -4283,7 +4483,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-53.8</v>
+        <v>-46.58</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
@@ -4303,7 +4503,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-53.18</v>
+        <v>-45.96</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
@@ -4323,7 +4523,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-52.56</v>
+        <v>-45.34</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
@@ -4343,7 +4543,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-51.95</v>
+        <v>-44.73</v>
       </c>
       <c r="C15" t="n">
         <v>2</v>
@@ -4363,7 +4563,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-51.34</v>
+        <v>-44.12</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
@@ -4383,7 +4583,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-50.73</v>
+        <v>-43.5</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
@@ -4403,7 +4603,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-50.12</v>
+        <v>-42.89</v>
       </c>
       <c r="C18" t="n">
         <v>2</v>
@@ -4423,7 +4623,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-49.51</v>
+        <v>-42.29</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
@@ -4443,7 +4643,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-48.9</v>
+        <v>-41.68</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
@@ -4463,7 +4663,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-48.29</v>
+        <v>-41.07</v>
       </c>
       <c r="C21" t="n">
         <v>2</v>
@@ -4483,7 +4683,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-47.69</v>
+        <v>-40.46</v>
       </c>
       <c r="C22" t="n">
         <v>2</v>
@@ -4503,7 +4703,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-47.08</v>
+        <v>-39.86</v>
       </c>
       <c r="C23" t="n">
         <v>2</v>
@@ -4523,7 +4723,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-46.47</v>
+        <v>-39.25</v>
       </c>
       <c r="C24" t="n">
         <v>2</v>
@@ -4543,7 +4743,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-45.87</v>
+        <v>-38.65</v>
       </c>
       <c r="C25" t="n">
         <v>2</v>
@@ -4563,7 +4763,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-45.27</v>
+        <v>-38.05</v>
       </c>
       <c r="C26" t="n">
         <v>2</v>
@@ -4583,7 +4783,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-44.66</v>
+        <v>-37.44</v>
       </c>
       <c r="C27" t="n">
         <v>2</v>
@@ -4603,7 +4803,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-44.06</v>
+        <v>-36.84</v>
       </c>
       <c r="C28" t="n">
         <v>2</v>
@@ -4623,7 +4823,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-43.46</v>
+        <v>-36.24</v>
       </c>
       <c r="C29" t="n">
         <v>2</v>
@@ -4643,7 +4843,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-42.85</v>
+        <v>-35.63</v>
       </c>
       <c r="C30" t="n">
         <v>2</v>
@@ -4663,7 +4863,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-42.25</v>
+        <v>-35.03</v>
       </c>
       <c r="C31" t="n">
         <v>2</v>
@@ -4683,7 +4883,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-41.65</v>
+        <v>-34.43</v>
       </c>
       <c r="C32" t="n">
         <v>2</v>
@@ -4703,7 +4903,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-41.05</v>
+        <v>-33.83</v>
       </c>
       <c r="C33" t="n">
         <v>2</v>
@@ -4723,7 +4923,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-40.45</v>
+        <v>-33.23</v>
       </c>
       <c r="C34" t="n">
         <v>2</v>
@@ -4743,7 +4943,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-39.85</v>
+        <v>-32.62</v>
       </c>
       <c r="C35" t="n">
         <v>2</v>
@@ -4763,7 +4963,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-39.24</v>
+        <v>-32.02</v>
       </c>
       <c r="C36" t="n">
         <v>2</v>
@@ -4783,7 +4983,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-38.64</v>
+        <v>-31.42</v>
       </c>
       <c r="C37" t="n">
         <v>2</v>
@@ -4803,7 +5003,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-38.04</v>
+        <v>-30.82</v>
       </c>
       <c r="C38" t="n">
         <v>2</v>
@@ -4823,7 +5023,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-37.44</v>
+        <v>-30.22</v>
       </c>
       <c r="C39" t="n">
         <v>2</v>
@@ -4843,7 +5043,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-36.84</v>
+        <v>-29.62</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
@@ -4863,7 +5063,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-36.24</v>
+        <v>-29.02</v>
       </c>
       <c r="C41" t="n">
         <v>2</v>
@@ -4883,7 +5083,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-35.64</v>
+        <v>-28.42</v>
       </c>
       <c r="C42" t="n">
         <v>2</v>
@@ -4903,7 +5103,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-35.04</v>
+        <v>-27.82</v>
       </c>
       <c r="C43" t="n">
         <v>2</v>
@@ -4923,7 +5123,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-34.44</v>
+        <v>-27.22</v>
       </c>
       <c r="C44" t="n">
         <v>2</v>
@@ -4943,7 +5143,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-33.84</v>
+        <v>-26.62</v>
       </c>
       <c r="C45" t="n">
         <v>2</v>
@@ -4963,7 +5163,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-33.24</v>
+        <v>-26.02</v>
       </c>
       <c r="C46" t="n">
         <v>2</v>
@@ -4983,7 +5183,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-32.64</v>
+        <v>-25.42</v>
       </c>
       <c r="C47" t="n">
         <v>2</v>
@@ -5003,13 +5203,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-32.04</v>
+        <v>-24.82</v>
       </c>
       <c r="C48" t="n">
         <v>2</v>
       </c>
       <c r="D48" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="E48" t="n">
         <v>-0</v>
@@ -5023,13 +5223,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-31.44</v>
+        <v>-24.25</v>
       </c>
       <c r="C49" t="n">
         <v>2</v>
       </c>
       <c r="D49" t="n">
-        <v>9</v>
+        <v>8.06</v>
       </c>
       <c r="E49" t="n">
         <v>-0</v>
@@ -5043,13 +5243,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-30.84</v>
+        <v>-23.71</v>
       </c>
       <c r="C50" t="n">
         <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>9</v>
+        <v>7.66</v>
       </c>
       <c r="E50" t="n">
         <v>-0</v>
@@ -5063,13 +5263,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-30.24</v>
+        <v>-23.2</v>
       </c>
       <c r="C51" t="n">
         <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>9</v>
+        <v>7.31</v>
       </c>
       <c r="E51" t="n">
         <v>-0</v>
@@ -5083,13 +5283,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-29.64</v>
+        <v>-22.71</v>
       </c>
       <c r="C52" t="n">
         <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E52" t="n">
         <v>-0</v>
@@ -5103,13 +5303,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-29.04</v>
+        <v>-22.25</v>
       </c>
       <c r="C53" t="n">
         <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>9</v>
+        <v>6.72</v>
       </c>
       <c r="E53" t="n">
         <v>-0</v>
@@ -5123,13 +5323,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-28.44</v>
+        <v>-21.8</v>
       </c>
       <c r="C54" t="n">
         <v>2</v>
       </c>
       <c r="D54" t="n">
-        <v>9</v>
+        <v>5.98</v>
       </c>
       <c r="E54" t="n">
         <v>-0</v>
@@ -5143,13 +5343,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-27.84</v>
+        <v>-21.4</v>
       </c>
       <c r="C55" t="n">
         <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>9</v>
+        <v>5.31</v>
       </c>
       <c r="E55" t="n">
         <v>-0</v>
@@ -5163,13 +5363,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-27.24</v>
+        <v>-21.05</v>
       </c>
       <c r="C56" t="n">
         <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>9</v>
+        <v>4.72</v>
       </c>
       <c r="E56" t="n">
         <v>-0</v>
@@ -5183,13 +5383,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-26.64</v>
+        <v>-20.73</v>
       </c>
       <c r="C57" t="n">
         <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="E57" t="n">
         <v>-0</v>
@@ -5203,13 +5403,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-26.04</v>
+        <v>-20.45</v>
       </c>
       <c r="C58" t="n">
         <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>9</v>
+        <v>3.73</v>
       </c>
       <c r="E58" t="n">
         <v>-0</v>
@@ -5223,13 +5423,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-25.44</v>
+        <v>-20.2</v>
       </c>
       <c r="C59" t="n">
         <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>9</v>
+        <v>3.32</v>
       </c>
       <c r="E59" t="n">
         <v>-0</v>
@@ -5243,13 +5443,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-24.84</v>
+        <v>-19.98</v>
       </c>
       <c r="C60" t="n">
         <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>9</v>
+        <v>2.95</v>
       </c>
       <c r="E60" t="n">
         <v>-0</v>
@@ -5263,13 +5463,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-24.24</v>
+        <v>-19.79</v>
       </c>
       <c r="C61" t="n">
         <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>9</v>
+        <v>2.62</v>
       </c>
       <c r="E61" t="n">
         <v>-0</v>
@@ -5283,13 +5483,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-23.64</v>
+        <v>-19.61</v>
       </c>
       <c r="C62" t="n">
         <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>9</v>
+        <v>2.33</v>
       </c>
       <c r="E62" t="n">
         <v>-0</v>
@@ -5303,13 +5503,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-23.04</v>
+        <v>-19.46</v>
       </c>
       <c r="C63" t="n">
         <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>9</v>
+        <v>2.07</v>
       </c>
       <c r="E63" t="n">
         <v>-0</v>
@@ -5323,13 +5523,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-22.44</v>
+        <v>-19.32</v>
       </c>
       <c r="C64" t="n">
         <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>9</v>
+        <v>1.84</v>
       </c>
       <c r="E64" t="n">
         <v>-0</v>
@@ -5343,13 +5543,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-21.84</v>
+        <v>-19.2</v>
       </c>
       <c r="C65" t="n">
         <v>2</v>
       </c>
       <c r="D65" t="n">
-        <v>9</v>
+        <v>1.64</v>
       </c>
       <c r="E65" t="n">
         <v>-0</v>
@@ -5363,13 +5563,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-21.24</v>
+        <v>-19.09</v>
       </c>
       <c r="C66" t="n">
         <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>9</v>
+        <v>1.45</v>
       </c>
       <c r="E66" t="n">
         <v>-0</v>
@@ -5383,13 +5583,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-20.63</v>
+        <v>-18.99</v>
       </c>
       <c r="C67" t="n">
         <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>9</v>
+        <v>1.29</v>
       </c>
       <c r="E67" t="n">
         <v>-0</v>
@@ -5403,13 +5603,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-20.03</v>
+        <v>-18.9</v>
       </c>
       <c r="C68" t="n">
         <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>9</v>
+        <v>1.15</v>
       </c>
       <c r="E68" t="n">
         <v>-0</v>
@@ -5423,13 +5623,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-19.43</v>
+        <v>-18.83</v>
       </c>
       <c r="C69" t="n">
         <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>9</v>
+        <v>1.02</v>
       </c>
       <c r="E69" t="n">
         <v>-0</v>
@@ -5443,13 +5643,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-18.83</v>
+        <v>-18.76</v>
       </c>
       <c r="C70" t="n">
         <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>9</v>
+        <v>0.91</v>
       </c>
       <c r="E70" t="n">
         <v>-0</v>
@@ -5463,13 +5663,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-18.23</v>
+        <v>-18.7</v>
       </c>
       <c r="C71" t="n">
         <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>9</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E71" t="n">
         <v>-0</v>
@@ -5483,13 +5683,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-17.63</v>
+        <v>-18.64</v>
       </c>
       <c r="C72" t="n">
         <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>9</v>
+        <v>0.72</v>
       </c>
       <c r="E72" t="n">
         <v>-0</v>
@@ -5503,13 +5703,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-17.03</v>
+        <v>-18.6</v>
       </c>
       <c r="C73" t="n">
         <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>9</v>
+        <v>0.64</v>
       </c>
       <c r="E73" t="n">
         <v>-0</v>
@@ -5523,13 +5723,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-16.43</v>
+        <v>-18.55</v>
       </c>
       <c r="C74" t="n">
         <v>2</v>
       </c>
       <c r="D74" t="n">
-        <v>9</v>
+        <v>0.57</v>
       </c>
       <c r="E74" t="n">
         <v>-0</v>
@@ -5543,13 +5743,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-15.83</v>
+        <v>-18.52</v>
       </c>
       <c r="C75" t="n">
         <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>9</v>
+        <v>0.5</v>
       </c>
       <c r="E75" t="n">
         <v>-0</v>
@@ -5563,16 +5763,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-15.23</v>
+        <v>-18.48</v>
       </c>
       <c r="C76" t="n">
         <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>9</v>
+        <v>0.45</v>
       </c>
       <c r="E76" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F76" t="b">
         <v>0</v>
@@ -5583,13 +5783,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-14.63</v>
+        <v>-18.45</v>
       </c>
       <c r="C77" t="n">
         <v>2</v>
       </c>
       <c r="D77" t="n">
-        <v>9</v>
+        <v>0.4</v>
       </c>
       <c r="E77" t="n">
         <v>-0</v>
@@ -5603,16 +5803,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-14.03</v>
+        <v>-18.43</v>
       </c>
       <c r="C78" t="n">
         <v>2</v>
       </c>
       <c r="D78" t="n">
-        <v>9</v>
+        <v>0.35</v>
       </c>
       <c r="E78" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F78" t="b">
         <v>0</v>
@@ -5623,13 +5823,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-13.43</v>
+        <v>-18.4</v>
       </c>
       <c r="C79" t="n">
         <v>2</v>
       </c>
       <c r="D79" t="n">
-        <v>9</v>
+        <v>0.31</v>
       </c>
       <c r="E79" t="n">
         <v>-0</v>
@@ -5643,16 +5843,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-12.84</v>
+        <v>-18.38</v>
       </c>
       <c r="C80" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>9</v>
+        <v>0.28</v>
       </c>
       <c r="E80" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
@@ -5663,16 +5863,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-12.24</v>
+        <v>-18.36</v>
       </c>
       <c r="C81" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
-        <v>9</v>
+        <v>0.25</v>
       </c>
       <c r="E81" t="n">
-        <v>0.03</v>
+        <v>-0</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
@@ -5683,16 +5883,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-11.64</v>
+        <v>-18.35</v>
       </c>
       <c r="C82" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
-        <v>9</v>
+        <v>0.22</v>
       </c>
       <c r="E82" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
@@ -5703,13 +5903,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-11.04</v>
+        <v>-18.33</v>
       </c>
       <c r="C83" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
-        <v>9</v>
+        <v>0.2</v>
       </c>
       <c r="E83" t="n">
         <v>-0</v>
@@ -5723,16 +5923,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>-10.44</v>
+        <v>-18.32</v>
       </c>
       <c r="C84" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
-        <v>9</v>
+        <v>0.17</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.02</v>
+        <v>0</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
@@ -5743,16 +5943,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-9.85</v>
+        <v>-18.31</v>
       </c>
       <c r="C85" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
-        <v>9</v>
+        <v>0.16</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.05</v>
+        <v>-0</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
@@ -5763,16 +5963,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-9.26</v>
+        <v>-18.3</v>
       </c>
       <c r="C86" t="n">
-        <v>1.78</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>9</v>
+        <v>0.14</v>
       </c>
       <c r="E86" t="n">
-        <v>-0.09</v>
+        <v>0</v>
       </c>
       <c r="F86" t="b">
         <v>0</v>
@@ -5783,16 +5983,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>-8.67</v>
+        <v>-18.29</v>
       </c>
       <c r="C87" t="n">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
-        <v>9</v>
+        <v>0.12</v>
       </c>
       <c r="E87" t="n">
-        <v>-0.12</v>
+        <v>-0</v>
       </c>
       <c r="F87" t="b">
         <v>0</v>
@@ -5803,16 +6003,16 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-8.1</v>
+        <v>-18.28</v>
       </c>
       <c r="C88" t="n">
-        <v>1.49</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
-        <v>9</v>
+        <v>0.11</v>
       </c>
       <c r="E88" t="n">
-        <v>-0.15</v>
+        <v>0</v>
       </c>
       <c r="F88" t="b">
         <v>0</v>
@@ -5823,18 +6023,118 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>-7.52</v>
+        <v>-18.27</v>
       </c>
       <c r="C89" t="n">
-        <v>1.31</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
-        <v>9</v>
+        <v>0.1</v>
       </c>
       <c r="E89" t="n">
-        <v>-0.19</v>
+        <v>-0</v>
       </c>
       <c r="F89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>-18.27</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>-18.26</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E91" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>-18.26</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>-18.22</v>
+      </c>
+      <c r="C93" t="n">
+        <v>2</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1</v>
+      </c>
+      <c r="E93" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>-18.15</v>
+      </c>
+      <c r="C94" t="n">
+        <v>2</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0</v>
+      </c>
+      <c r="F94" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5849,7 +6149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:F94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5897,7 +6197,7 @@
         <v>-2</v>
       </c>
       <c r="C2" t="n">
-        <v>-52.2</v>
+        <v>-54.43</v>
       </c>
       <c r="D2" t="n">
         <v>9.890000000000001</v>
@@ -5917,7 +6217,7 @@
         <v>-2</v>
       </c>
       <c r="C3" t="n">
-        <v>-51.54</v>
+        <v>-53.77</v>
       </c>
       <c r="D3" t="n">
         <v>9.789999999999999</v>
@@ -5937,7 +6237,7 @@
         <v>-2</v>
       </c>
       <c r="C4" t="n">
-        <v>-50.89</v>
+        <v>-53.12</v>
       </c>
       <c r="D4" t="n">
         <v>9.699999999999999</v>
@@ -5957,7 +6257,7 @@
         <v>-2</v>
       </c>
       <c r="C5" t="n">
-        <v>-50.24</v>
+        <v>-52.47</v>
       </c>
       <c r="D5" t="n">
         <v>9.619999999999999</v>
@@ -5977,7 +6277,7 @@
         <v>-2</v>
       </c>
       <c r="C6" t="n">
-        <v>-49.6</v>
+        <v>-51.83</v>
       </c>
       <c r="D6" t="n">
         <v>9.550000000000001</v>
@@ -5997,7 +6297,7 @@
         <v>-2</v>
       </c>
       <c r="C7" t="n">
-        <v>-48.96</v>
+        <v>-51.19</v>
       </c>
       <c r="D7" t="n">
         <v>9.49</v>
@@ -6017,7 +6317,7 @@
         <v>-2</v>
       </c>
       <c r="C8" t="n">
-        <v>-48.33</v>
+        <v>-50.56</v>
       </c>
       <c r="D8" t="n">
         <v>9.44</v>
@@ -6037,7 +6337,7 @@
         <v>-2</v>
       </c>
       <c r="C9" t="n">
-        <v>-47.7</v>
+        <v>-49.93</v>
       </c>
       <c r="D9" t="n">
         <v>9.390000000000001</v>
@@ -6057,7 +6357,7 @@
         <v>-2</v>
       </c>
       <c r="C10" t="n">
-        <v>-47.08</v>
+        <v>-49.3</v>
       </c>
       <c r="D10" t="n">
         <v>9.35</v>
@@ -6077,7 +6377,7 @@
         <v>-2</v>
       </c>
       <c r="C11" t="n">
-        <v>-46.45</v>
+        <v>-48.68</v>
       </c>
       <c r="D11" t="n">
         <v>9.31</v>
@@ -6097,7 +6397,7 @@
         <v>-2</v>
       </c>
       <c r="C12" t="n">
-        <v>-45.83</v>
+        <v>-48.06</v>
       </c>
       <c r="D12" t="n">
         <v>9.27</v>
@@ -6117,7 +6417,7 @@
         <v>-2</v>
       </c>
       <c r="C13" t="n">
-        <v>-45.21</v>
+        <v>-47.44</v>
       </c>
       <c r="D13" t="n">
         <v>9.24</v>
@@ -6137,7 +6437,7 @@
         <v>-2</v>
       </c>
       <c r="C14" t="n">
-        <v>-44.6</v>
+        <v>-46.83</v>
       </c>
       <c r="D14" t="n">
         <v>9.220000000000001</v>
@@ -6157,7 +6457,7 @@
         <v>-2</v>
       </c>
       <c r="C15" t="n">
-        <v>-43.98</v>
+        <v>-46.21</v>
       </c>
       <c r="D15" t="n">
         <v>9.19</v>
@@ -6177,7 +6477,7 @@
         <v>-2</v>
       </c>
       <c r="C16" t="n">
-        <v>-43.37</v>
+        <v>-45.6</v>
       </c>
       <c r="D16" t="n">
         <v>9.17</v>
@@ -6197,7 +6497,7 @@
         <v>-2</v>
       </c>
       <c r="C17" t="n">
-        <v>-42.76</v>
+        <v>-44.99</v>
       </c>
       <c r="D17" t="n">
         <v>9.15</v>
@@ -6217,7 +6517,7 @@
         <v>-2</v>
       </c>
       <c r="C18" t="n">
-        <v>-42.15</v>
+        <v>-44.38</v>
       </c>
       <c r="D18" t="n">
         <v>9.140000000000001</v>
@@ -6237,7 +6537,7 @@
         <v>-2</v>
       </c>
       <c r="C19" t="n">
-        <v>-41.54</v>
+        <v>-43.77</v>
       </c>
       <c r="D19" t="n">
         <v>9.119999999999999</v>
@@ -6257,7 +6557,7 @@
         <v>-2</v>
       </c>
       <c r="C20" t="n">
-        <v>-40.93</v>
+        <v>-43.16</v>
       </c>
       <c r="D20" t="n">
         <v>9.109999999999999</v>
@@ -6277,7 +6577,7 @@
         <v>-2</v>
       </c>
       <c r="C21" t="n">
-        <v>-40.32</v>
+        <v>-42.55</v>
       </c>
       <c r="D21" t="n">
         <v>9.09</v>
@@ -6297,7 +6597,7 @@
         <v>-2</v>
       </c>
       <c r="C22" t="n">
-        <v>-39.72</v>
+        <v>-41.95</v>
       </c>
       <c r="D22" t="n">
         <v>9.08</v>
@@ -6317,7 +6617,7 @@
         <v>-2</v>
       </c>
       <c r="C23" t="n">
-        <v>-39.11</v>
+        <v>-41.34</v>
       </c>
       <c r="D23" t="n">
         <v>9.07</v>
@@ -6337,7 +6637,7 @@
         <v>-2</v>
       </c>
       <c r="C24" t="n">
-        <v>-38.51</v>
+        <v>-40.74</v>
       </c>
       <c r="D24" t="n">
         <v>9.07</v>
@@ -6357,7 +6657,7 @@
         <v>-2</v>
       </c>
       <c r="C25" t="n">
-        <v>-37.9</v>
+        <v>-40.13</v>
       </c>
       <c r="D25" t="n">
         <v>9.06</v>
@@ -6377,7 +6677,7 @@
         <v>-2</v>
       </c>
       <c r="C26" t="n">
-        <v>-37.3</v>
+        <v>-39.53</v>
       </c>
       <c r="D26" t="n">
         <v>9.050000000000001</v>
@@ -6397,7 +6697,7 @@
         <v>-2</v>
       </c>
       <c r="C27" t="n">
-        <v>-36.7</v>
+        <v>-38.92</v>
       </c>
       <c r="D27" t="n">
         <v>9.050000000000001</v>
@@ -6417,7 +6717,7 @@
         <v>-2</v>
       </c>
       <c r="C28" t="n">
-        <v>-36.09</v>
+        <v>-38.32</v>
       </c>
       <c r="D28" t="n">
         <v>9.039999999999999</v>
@@ -6437,7 +6737,7 @@
         <v>-2</v>
       </c>
       <c r="C29" t="n">
-        <v>-35.49</v>
+        <v>-37.72</v>
       </c>
       <c r="D29" t="n">
         <v>9.039999999999999</v>
@@ -6457,7 +6757,7 @@
         <v>-2</v>
       </c>
       <c r="C30" t="n">
-        <v>-34.89</v>
+        <v>-37.12</v>
       </c>
       <c r="D30" t="n">
         <v>9.029999999999999</v>
@@ -6477,7 +6777,7 @@
         <v>-2</v>
       </c>
       <c r="C31" t="n">
-        <v>-34.28</v>
+        <v>-36.51</v>
       </c>
       <c r="D31" t="n">
         <v>9.029999999999999</v>
@@ -6497,7 +6797,7 @@
         <v>-2</v>
       </c>
       <c r="C32" t="n">
-        <v>-33.68</v>
+        <v>-35.91</v>
       </c>
       <c r="D32" t="n">
         <v>9.029999999999999</v>
@@ -6517,7 +6817,7 @@
         <v>-2</v>
       </c>
       <c r="C33" t="n">
-        <v>-33.08</v>
+        <v>-35.31</v>
       </c>
       <c r="D33" t="n">
         <v>9.02</v>
@@ -6537,7 +6837,7 @@
         <v>-2</v>
       </c>
       <c r="C34" t="n">
-        <v>-32.48</v>
+        <v>-34.71</v>
       </c>
       <c r="D34" t="n">
         <v>9.02</v>
@@ -6557,7 +6857,7 @@
         <v>-2</v>
       </c>
       <c r="C35" t="n">
-        <v>-31.88</v>
+        <v>-34.11</v>
       </c>
       <c r="D35" t="n">
         <v>9.02</v>
@@ -6577,7 +6877,7 @@
         <v>-2</v>
       </c>
       <c r="C36" t="n">
-        <v>-31.28</v>
+        <v>-33.51</v>
       </c>
       <c r="D36" t="n">
         <v>9.02</v>
@@ -6597,7 +6897,7 @@
         <v>-2</v>
       </c>
       <c r="C37" t="n">
-        <v>-30.68</v>
+        <v>-32.9</v>
       </c>
       <c r="D37" t="n">
         <v>9.01</v>
@@ -6617,7 +6917,7 @@
         <v>-2</v>
       </c>
       <c r="C38" t="n">
-        <v>-30.07</v>
+        <v>-32.3</v>
       </c>
       <c r="D38" t="n">
         <v>9.01</v>
@@ -6637,7 +6937,7 @@
         <v>-2</v>
       </c>
       <c r="C39" t="n">
-        <v>-29.47</v>
+        <v>-31.7</v>
       </c>
       <c r="D39" t="n">
         <v>9.01</v>
@@ -6657,7 +6957,7 @@
         <v>-2</v>
       </c>
       <c r="C40" t="n">
-        <v>-28.87</v>
+        <v>-31.1</v>
       </c>
       <c r="D40" t="n">
         <v>9.01</v>
@@ -6677,7 +6977,7 @@
         <v>-2</v>
       </c>
       <c r="C41" t="n">
-        <v>-28.27</v>
+        <v>-30.5</v>
       </c>
       <c r="D41" t="n">
         <v>9.01</v>
@@ -6697,7 +6997,7 @@
         <v>-2</v>
       </c>
       <c r="C42" t="n">
-        <v>-27.67</v>
+        <v>-29.9</v>
       </c>
       <c r="D42" t="n">
         <v>9.01</v>
@@ -6717,7 +7017,7 @@
         <v>-2</v>
       </c>
       <c r="C43" t="n">
-        <v>-27.07</v>
+        <v>-29.3</v>
       </c>
       <c r="D43" t="n">
         <v>9.01</v>
@@ -6737,7 +7037,7 @@
         <v>-2</v>
       </c>
       <c r="C44" t="n">
-        <v>-26.47</v>
+        <v>-28.7</v>
       </c>
       <c r="D44" t="n">
         <v>9.01</v>
@@ -6757,7 +7057,7 @@
         <v>-2</v>
       </c>
       <c r="C45" t="n">
-        <v>-25.87</v>
+        <v>-28.1</v>
       </c>
       <c r="D45" t="n">
         <v>9.01</v>
@@ -6777,7 +7077,7 @@
         <v>-2</v>
       </c>
       <c r="C46" t="n">
-        <v>-25.27</v>
+        <v>-27.5</v>
       </c>
       <c r="D46" t="n">
         <v>9</v>
@@ -6797,7 +7097,7 @@
         <v>-2</v>
       </c>
       <c r="C47" t="n">
-        <v>-24.67</v>
+        <v>-26.9</v>
       </c>
       <c r="D47" t="n">
         <v>9</v>
@@ -6817,7 +7117,7 @@
         <v>-2</v>
       </c>
       <c r="C48" t="n">
-        <v>-24.07</v>
+        <v>-26.3</v>
       </c>
       <c r="D48" t="n">
         <v>9</v>
@@ -6837,7 +7137,7 @@
         <v>-2</v>
       </c>
       <c r="C49" t="n">
-        <v>-23.47</v>
+        <v>-25.7</v>
       </c>
       <c r="D49" t="n">
         <v>9</v>
@@ -6857,10 +7157,10 @@
         <v>-2</v>
       </c>
       <c r="C50" t="n">
-        <v>-22.87</v>
+        <v>-25.1</v>
       </c>
       <c r="D50" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="E50" t="n">
         <v>1.57</v>
@@ -6877,10 +7177,10 @@
         <v>-2</v>
       </c>
       <c r="C51" t="n">
-        <v>-22.27</v>
+        <v>-24.53</v>
       </c>
       <c r="D51" t="n">
-        <v>9</v>
+        <v>8.06</v>
       </c>
       <c r="E51" t="n">
         <v>1.57</v>
@@ -6897,10 +7197,10 @@
         <v>-2</v>
       </c>
       <c r="C52" t="n">
-        <v>-21.67</v>
+        <v>-23.99</v>
       </c>
       <c r="D52" t="n">
-        <v>9</v>
+        <v>7.66</v>
       </c>
       <c r="E52" t="n">
         <v>1.57</v>
@@ -6917,10 +7217,10 @@
         <v>-2</v>
       </c>
       <c r="C53" t="n">
-        <v>-21.07</v>
+        <v>-23.48</v>
       </c>
       <c r="D53" t="n">
-        <v>9</v>
+        <v>7.31</v>
       </c>
       <c r="E53" t="n">
         <v>1.57</v>
@@ -6937,10 +7237,10 @@
         <v>-2</v>
       </c>
       <c r="C54" t="n">
-        <v>-20.47</v>
+        <v>-23</v>
       </c>
       <c r="D54" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E54" t="n">
         <v>1.57</v>
@@ -6957,10 +7257,10 @@
         <v>-2</v>
       </c>
       <c r="C55" t="n">
-        <v>-19.87</v>
+        <v>-22.53</v>
       </c>
       <c r="D55" t="n">
-        <v>9</v>
+        <v>6.72</v>
       </c>
       <c r="E55" t="n">
         <v>1.57</v>
@@ -6977,10 +7277,10 @@
         <v>-2</v>
       </c>
       <c r="C56" t="n">
-        <v>-19.27</v>
+        <v>-22.08</v>
       </c>
       <c r="D56" t="n">
-        <v>9</v>
+        <v>5.97</v>
       </c>
       <c r="E56" t="n">
         <v>1.57</v>
@@ -6997,10 +7297,10 @@
         <v>-2</v>
       </c>
       <c r="C57" t="n">
-        <v>-18.67</v>
+        <v>-21.68</v>
       </c>
       <c r="D57" t="n">
-        <v>9</v>
+        <v>5.31</v>
       </c>
       <c r="E57" t="n">
         <v>1.57</v>
@@ -7017,10 +7317,10 @@
         <v>-2</v>
       </c>
       <c r="C58" t="n">
-        <v>-18.07</v>
+        <v>-21.33</v>
       </c>
       <c r="D58" t="n">
-        <v>9</v>
+        <v>4.72</v>
       </c>
       <c r="E58" t="n">
         <v>1.57</v>
@@ -7037,10 +7337,10 @@
         <v>-2</v>
       </c>
       <c r="C59" t="n">
-        <v>-17.47</v>
+        <v>-21.01</v>
       </c>
       <c r="D59" t="n">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="E59" t="n">
         <v>1.57</v>
@@ -7057,10 +7357,10 @@
         <v>-2</v>
       </c>
       <c r="C60" t="n">
-        <v>-16.87</v>
+        <v>-20.73</v>
       </c>
       <c r="D60" t="n">
-        <v>9</v>
+        <v>3.73</v>
       </c>
       <c r="E60" t="n">
         <v>1.57</v>
@@ -7077,10 +7377,10 @@
         <v>-2</v>
       </c>
       <c r="C61" t="n">
-        <v>-16.27</v>
+        <v>-20.49</v>
       </c>
       <c r="D61" t="n">
-        <v>9</v>
+        <v>3.32</v>
       </c>
       <c r="E61" t="n">
         <v>1.57</v>
@@ -7097,10 +7397,10 @@
         <v>-2</v>
       </c>
       <c r="C62" t="n">
-        <v>-15.67</v>
+        <v>-20.26</v>
       </c>
       <c r="D62" t="n">
-        <v>9</v>
+        <v>2.95</v>
       </c>
       <c r="E62" t="n">
         <v>1.57</v>
@@ -7117,10 +7417,10 @@
         <v>-2</v>
       </c>
       <c r="C63" t="n">
-        <v>-15.07</v>
+        <v>-20.07</v>
       </c>
       <c r="D63" t="n">
-        <v>9</v>
+        <v>2.62</v>
       </c>
       <c r="E63" t="n">
         <v>1.57</v>
@@ -7137,10 +7437,10 @@
         <v>-2</v>
       </c>
       <c r="C64" t="n">
-        <v>-14.47</v>
+        <v>-19.89</v>
       </c>
       <c r="D64" t="n">
-        <v>9</v>
+        <v>2.33</v>
       </c>
       <c r="E64" t="n">
         <v>1.57</v>
@@ -7157,10 +7457,10 @@
         <v>-2</v>
       </c>
       <c r="C65" t="n">
-        <v>-13.87</v>
+        <v>-19.74</v>
       </c>
       <c r="D65" t="n">
-        <v>9</v>
+        <v>2.07</v>
       </c>
       <c r="E65" t="n">
         <v>1.57</v>
@@ -7177,10 +7477,10 @@
         <v>-2</v>
       </c>
       <c r="C66" t="n">
-        <v>-13.27</v>
+        <v>-19.6</v>
       </c>
       <c r="D66" t="n">
-        <v>9</v>
+        <v>1.84</v>
       </c>
       <c r="E66" t="n">
         <v>1.57</v>
@@ -7194,16 +7494,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-2.06</v>
+        <v>-2</v>
       </c>
       <c r="C67" t="n">
-        <v>-12.67</v>
+        <v>-19.48</v>
       </c>
       <c r="D67" t="n">
-        <v>9</v>
+        <v>1.64</v>
       </c>
       <c r="E67" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
@@ -7214,16 +7514,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-2.07</v>
+        <v>-2</v>
       </c>
       <c r="C68" t="n">
-        <v>-12.07</v>
+        <v>-19.37</v>
       </c>
       <c r="D68" t="n">
-        <v>9</v>
+        <v>1.45</v>
       </c>
       <c r="E68" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="F68" t="b">
         <v>0</v>
@@ -7234,16 +7534,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-2.06</v>
+        <v>-2</v>
       </c>
       <c r="C69" t="n">
-        <v>-11.47</v>
+        <v>-19.27</v>
       </c>
       <c r="D69" t="n">
-        <v>9</v>
+        <v>1.29</v>
       </c>
       <c r="E69" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
@@ -7254,16 +7554,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-2.02</v>
+        <v>-2</v>
       </c>
       <c r="C70" t="n">
-        <v>-10.87</v>
+        <v>-19.18</v>
       </c>
       <c r="D70" t="n">
-        <v>9</v>
+        <v>1.15</v>
       </c>
       <c r="E70" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
@@ -7274,16 +7574,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-1.95</v>
+        <v>-2</v>
       </c>
       <c r="C71" t="n">
-        <v>-10.28</v>
+        <v>-19.11</v>
       </c>
       <c r="D71" t="n">
-        <v>9</v>
+        <v>1.02</v>
       </c>
       <c r="E71" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
@@ -7294,16 +7594,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-1.86</v>
+        <v>-2</v>
       </c>
       <c r="C72" t="n">
-        <v>-9.68</v>
+        <v>-19.04</v>
       </c>
       <c r="D72" t="n">
-        <v>9</v>
+        <v>0.91</v>
       </c>
       <c r="E72" t="n">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="F72" t="b">
         <v>0</v>
@@ -7314,16 +7614,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-1.74</v>
+        <v>-2</v>
       </c>
       <c r="C73" t="n">
-        <v>-9.09</v>
+        <v>-18.98</v>
       </c>
       <c r="D73" t="n">
-        <v>9</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E73" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
@@ -7334,16 +7634,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
       <c r="C74" t="n">
-        <v>-8.51</v>
+        <v>-18.93</v>
       </c>
       <c r="D74" t="n">
-        <v>9</v>
+        <v>0.72</v>
       </c>
       <c r="E74" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="F74" t="b">
         <v>0</v>
@@ -7354,16 +7654,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-1.44</v>
+        <v>-2</v>
       </c>
       <c r="C75" t="n">
-        <v>-7.93</v>
+        <v>-18.88</v>
       </c>
       <c r="D75" t="n">
-        <v>9</v>
+        <v>0.64</v>
       </c>
       <c r="E75" t="n">
-        <v>1.41</v>
+        <v>1.57</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
@@ -7374,16 +7674,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-1.25</v>
+        <v>-2</v>
       </c>
       <c r="C76" t="n">
-        <v>-7.36</v>
+        <v>-18.84</v>
       </c>
       <c r="D76" t="n">
-        <v>9</v>
+        <v>0.57</v>
       </c>
       <c r="E76" t="n">
-        <v>1.37</v>
+        <v>1.57</v>
       </c>
       <c r="F76" t="b">
         <v>0</v>
@@ -7394,16 +7694,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-1.04</v>
+        <v>-2</v>
       </c>
       <c r="C77" t="n">
-        <v>-6.8</v>
+        <v>-18.8</v>
       </c>
       <c r="D77" t="n">
-        <v>9</v>
+        <v>0.5</v>
       </c>
       <c r="E77" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="F77" t="b">
         <v>0</v>
@@ -7414,16 +7714,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.8</v>
+        <v>-2</v>
       </c>
       <c r="C78" t="n">
-        <v>-6.25</v>
+        <v>-18.76</v>
       </c>
       <c r="D78" t="n">
-        <v>9</v>
+        <v>0.45</v>
       </c>
       <c r="E78" t="n">
-        <v>1.29</v>
+        <v>1.57</v>
       </c>
       <c r="F78" t="b">
         <v>0</v>
@@ -7434,16 +7734,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.54</v>
+        <v>-2</v>
       </c>
       <c r="C79" t="n">
-        <v>-5.71</v>
+        <v>-18.73</v>
       </c>
       <c r="D79" t="n">
-        <v>9</v>
+        <v>0.4</v>
       </c>
       <c r="E79" t="n">
-        <v>1.25</v>
+        <v>1.57</v>
       </c>
       <c r="F79" t="b">
         <v>0</v>
@@ -7454,16 +7754,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.26</v>
+        <v>-2</v>
       </c>
       <c r="C80" t="n">
-        <v>-5.18</v>
+        <v>-18.71</v>
       </c>
       <c r="D80" t="n">
-        <v>9</v>
+        <v>0.35</v>
       </c>
       <c r="E80" t="n">
-        <v>1.21</v>
+        <v>1.57</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
@@ -7474,16 +7774,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.05</v>
+        <v>-2</v>
       </c>
       <c r="C81" t="n">
-        <v>-4.67</v>
+        <v>-18.68</v>
       </c>
       <c r="D81" t="n">
-        <v>9</v>
+        <v>0.31</v>
       </c>
       <c r="E81" t="n">
-        <v>1.17</v>
+        <v>1.57</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
@@ -7494,16 +7794,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.38</v>
+        <v>-2</v>
       </c>
       <c r="C82" t="n">
-        <v>-4.16</v>
+        <v>-18.66</v>
       </c>
       <c r="D82" t="n">
-        <v>9</v>
+        <v>0.28</v>
       </c>
       <c r="E82" t="n">
-        <v>1.13</v>
+        <v>1.57</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
@@ -7514,16 +7814,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.73</v>
+        <v>-2</v>
       </c>
       <c r="C83" t="n">
-        <v>-3.68</v>
+        <v>-18.64</v>
       </c>
       <c r="D83" t="n">
-        <v>9</v>
+        <v>0.25</v>
       </c>
       <c r="E83" t="n">
-        <v>1.08</v>
+        <v>1.57</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
@@ -7534,16 +7834,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.1</v>
+        <v>-2</v>
       </c>
       <c r="C84" t="n">
-        <v>-3.21</v>
+        <v>-18.63</v>
       </c>
       <c r="D84" t="n">
-        <v>9</v>
+        <v>0.22</v>
       </c>
       <c r="E84" t="n">
-        <v>1.04</v>
+        <v>1.57</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
@@ -7554,16 +7854,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1.49</v>
+        <v>-2</v>
       </c>
       <c r="C85" t="n">
-        <v>-2.75</v>
+        <v>-18.61</v>
       </c>
       <c r="D85" t="n">
-        <v>9</v>
+        <v>0.2</v>
       </c>
       <c r="E85" t="n">
-        <v>1</v>
+        <v>1.57</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
@@ -7574,16 +7874,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.91</v>
+        <v>-2</v>
       </c>
       <c r="C86" t="n">
-        <v>-2.32</v>
+        <v>-18.6</v>
       </c>
       <c r="D86" t="n">
-        <v>9</v>
+        <v>0.17</v>
       </c>
       <c r="E86" t="n">
-        <v>0.95</v>
+        <v>1.57</v>
       </c>
       <c r="F86" t="b">
         <v>0</v>
@@ -7594,16 +7894,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>2.34</v>
+        <v>-2</v>
       </c>
       <c r="C87" t="n">
-        <v>-1.9</v>
+        <v>-18.59</v>
       </c>
       <c r="D87" t="n">
-        <v>9</v>
+        <v>0.16</v>
       </c>
       <c r="E87" t="n">
-        <v>0.91</v>
+        <v>1.57</v>
       </c>
       <c r="F87" t="b">
         <v>0</v>
@@ -7614,16 +7914,16 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>2.79</v>
+        <v>-2</v>
       </c>
       <c r="C88" t="n">
-        <v>-1.51</v>
+        <v>-18.58</v>
       </c>
       <c r="D88" t="n">
-        <v>9</v>
+        <v>0.14</v>
       </c>
       <c r="E88" t="n">
-        <v>0.86</v>
+        <v>1.57</v>
       </c>
       <c r="F88" t="b">
         <v>0</v>
@@ -7634,18 +7934,118 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>3.26</v>
+        <v>-2</v>
       </c>
       <c r="C89" t="n">
-        <v>-1.13</v>
+        <v>-18.57</v>
       </c>
       <c r="D89" t="n">
-        <v>9</v>
+        <v>0.12</v>
       </c>
       <c r="E89" t="n">
-        <v>0.82</v>
+        <v>1.57</v>
       </c>
       <c r="F89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C90" t="n">
+        <v>-18.56</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C91" t="n">
+        <v>-18.55</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C92" t="n">
+        <v>-18.55</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C93" t="n">
+        <v>-18.54</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C94" t="n">
+        <v>-18.54</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F94" t="b">
         <v>0</v>
       </c>
     </row>
